--- a/ballots/2013-09 DSTU/QA/Resource MedicationDispenseDefToMedicationPresc..xlsx
+++ b/ballots/2013-09 DSTU/QA/Resource MedicationDispenseDefToMedicationPresc..xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="9270"/>
+    <workbookView xWindow="8985" yWindow="7455" windowWidth="22995" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Specification QA" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>Resource/Page</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Search Parameters</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Resource MedicationDispense - Formal Definitions</t>
   </si>
   <si>
@@ -240,6 +237,21 @@
   </si>
   <si>
     <t>4.9.3.1</t>
+  </si>
+  <si>
+    <t>Grahame</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>not done</t>
+  </si>
+  <si>
+    <t>can't find it</t>
+  </si>
+  <si>
+    <t>deferred (too hard)</t>
   </si>
 </sst>
 </file>
@@ -609,13 +621,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +639,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,59 +658,68 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -706,59 +727,68 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -766,19 +796,22 @@
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
@@ -786,39 +819,45 @@
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="120" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -826,19 +865,22 @@
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
@@ -846,19 +888,22 @@
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
@@ -866,105 +911,123 @@
       <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="195" x14ac:dyDescent="0.15">
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="195" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="105" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
